--- a/テスト項目/ラズパイ.xlsx
+++ b/テスト項目/ラズパイ.xlsx
@@ -962,7 +962,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1013,7 +1013,9 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1026,9 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1041,9 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1056,9 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1063,7 +1071,9 @@
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,7 +1084,9 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1097,9 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1110,9 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1125,9 @@
     </row>
     <row r="12" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1120,7 +1138,9 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1155,9 @@
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1148,7 +1170,9 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1161,7 +1185,9 @@
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1198,9 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1183,7 +1211,9 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1224,9 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1239,9 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1220,7 +1254,9 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>36</v>
       </c>

--- a/テスト項目/ラズパイ.xlsx
+++ b/テスト項目/ラズパイ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -283,67 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品を取り除いた場合、フラグとして-1を返す</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品を置かないとき、フラグとして1や-1を返さない
-初期値の0を返す</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>g_weightと比較して3以上数値が小さくなった場合、フラグとして-1を立てる</t>
-    <rPh sb="9" eb="11">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WEBカメラ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -450,19 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*画像を二値化し、送信する</t>
-    <rPh sb="1" eb="3">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ニチカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*商品を置いたとき、LED緑を点灯させる</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
@@ -561,6 +487,119 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ショウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を取り除いた場合、フラグとして2を返す</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を置かないとき、フラグとして1や2を返さない
+初期値の0を返す</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_weightと比較して3以上数値が小さくなった場合、フラグとして2を立てる（-1だと符号分）</t>
+    <rPh sb="9" eb="11">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二値化→グレースケール化</t>
+    <rPh sb="0" eb="3">
+      <t>ニチカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*画像をグレースケール化し、送信する</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真鍋</t>
+    <rPh sb="0" eb="2">
+      <t>マナベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -660,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +716,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,7 +1010,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -971,26 +1019,28 @@
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1007,9 +1057,15 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
@@ -1020,9 +1076,15 @@
         <v>8</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
@@ -1035,9 +1097,15 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
@@ -1050,9 +1118,15 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
@@ -1060,12 +1134,18 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
@@ -1078,9 +1158,15 @@
         <v>14</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
@@ -1091,9 +1177,15 @@
         <v>15</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
@@ -1104,9 +1196,15 @@
         <v>17</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
@@ -1119,9 +1217,15 @@
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
@@ -1129,12 +1233,18 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
@@ -1142,31 +1252,43 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
@@ -1174,27 +1296,39 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
@@ -1202,12 +1336,18 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
@@ -1215,12 +1355,20 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
@@ -1228,14 +1376,20 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
@@ -1243,14 +1397,20 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
@@ -1258,12 +1418,18 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="6">
+        <v>43823</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/テスト項目/ラズパイ.xlsx
+++ b/テスト項目/ラズパイ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -287,65 +287,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品を置いたとき、6枚画像を撮る</t>
+    <t>商品を置かなかったとき、画像を撮らない</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>オ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品を置かなかったとき、画像を撮らない</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
     <rPh sb="12" eb="14">
       <t>ガゾウ</t>
     </rPh>
     <rPh sb="15" eb="16">
       <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>超音波センサのフラグが1（flag == 1)の時のみ、0.5秒に1回、合計3秒間画像を取得する</t>
-    <rPh sb="0" eb="3">
-      <t>チョウオンパ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,28 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像をサーバに送信後、追加・削除のフラグをサーバに送信する</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*商品を置いたとき、LED緑を点灯させる</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
@@ -600,6 +531,23 @@
     <t>真鍋</t>
     <rPh sb="0" eb="2">
       <t>マナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を撮る</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグをサーバに送信する</t>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -633,7 +581,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -693,13 +641,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,20 +671,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1019,33 +1008,33 @@
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="8"/>
+    <col min="6" max="6" width="9" style="7"/>
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -1057,18 +1046,18 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>42</v>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1076,18 +1065,18 @@
         <v>8</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>42</v>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
@@ -1097,18 +1086,18 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>42</v>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="4"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1118,325 +1107,350 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="9"/>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12">
+        <v>43823</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="13">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43823</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="9"/>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="9"/>
+      <c r="C14" s="11">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="12">
+        <v>43823</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="14">
+        <v>43823</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="9"/>
+      <c r="C17" s="11">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12">
+        <v>43823</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13">
+        <v>14</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="14">
+        <v>43823</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="9"/>
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="9"/>
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="9"/>
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="9"/>
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="10"/>
+      <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" s="1">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="1">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="1">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="1">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="1">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="1">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="6">
-        <v>43823</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>42</v>
+      <c r="G24" s="5">
+        <v>43823</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト項目/ラズパイ.xlsx
+++ b/テスト項目/ラズパイ.xlsx
@@ -683,6 +683,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,30 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,7 +999,7 @@
   <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="9"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="9"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="9"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1118,48 +1118,48 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="11">
+      <c r="B7" s="17"/>
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>43823</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
+    <row r="8" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>43823</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="9"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="9"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="9"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1">
         <v>9</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="9"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1">
         <v>10</v>
       </c>
@@ -1245,50 +1245,50 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="9"/>
-      <c r="C14" s="11">
+      <c r="B14" s="17"/>
+      <c r="C14" s="8">
         <v>11</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <v>43823</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="16"/>
+    <row r="15" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>43823</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1296,48 +1296,48 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="9"/>
-      <c r="C17" s="11">
+      <c r="B17" s="17"/>
+      <c r="C17" s="8">
         <v>13</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="9">
         <v>43823</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="16"/>
+    <row r="18" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>14</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="11">
         <v>43823</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1345,7 +1345,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="9"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1364,7 +1364,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="9"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="9"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="9"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1427,7 +1427,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="10"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1">
         <v>19</v>
       </c>

--- a/テスト項目/ラズパイ.xlsx
+++ b/テスト項目/ラズパイ.xlsx
@@ -581,7 +581,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -604,61 +604,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,12 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -683,37 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1007,34 +923,34 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
+    <col min="5" max="5" width="81.375" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -1046,18 +962,18 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="17"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1065,18 +981,18 @@
         <v>8</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="17"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
@@ -1086,18 +1002,18 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="17"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1107,59 +1023,69 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="17"/>
-      <c r="C7" s="8">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9">
-        <v>43823</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13"/>
+      <c r="G7" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="3">
         <v>43823</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1167,128 +1093,140 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="17"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="17"/>
+      <c r="G11" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
       <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="17"/>
+      <c r="G12" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
       <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="8">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="9">
-        <v>43823</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
+      <c r="G14" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10"/>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="3">
         <v>43823</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1296,48 +1234,60 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="17"/>
-      <c r="C17" s="8">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="3" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="9">
-        <v>43823</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
+      <c r="G17" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="10">
-        <v>14</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="11">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3">
         <v>43823</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1345,112 +1295,51 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="17"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="17"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="17"/>
-      <c r="C22" s="1">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="17"/>
-      <c r="C23" s="1">
-        <v>18</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="18"/>
-      <c r="C24" s="1">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="5">
-        <v>43823</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="G21" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト項目/ラズパイ.xlsx
+++ b/テスト項目/ラズパイ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -174,13 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>歪ゲージ</t>
-    <rPh sb="0" eb="1">
-      <t>ヒズミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期値を取得する</t>
     <rPh sb="0" eb="3">
       <t>ショキチ</t>
@@ -207,28 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品を置いたとき、商品を取り除くまでフラグを立てたままにする</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品を置いたとき、商品の重量を取得する</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -346,31 +317,6 @@
     <t>サーバからFalseを受けとったとき</t>
     <rPh sb="11" eb="12">
       <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*正しく商品追加・削除できなかったとき、LED赤を点滅(3秒)させる</t>
-    <rPh sb="1" eb="2">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,6 +494,51 @@
     <t>フラグをサーバに送信する</t>
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*正しく商品追加・削除できなかったとき、LED赤を点灯(3秒)させる</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手もしくは商品を感知したとき、フラグを立てる</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -610,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +618,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -912,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -950,7 +944,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -963,17 +957,17 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3">
         <v>43823</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -982,17 +976,17 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3">
         <v>43823</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
@@ -1003,343 +997,433 @@
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3">
         <v>43823</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3">
         <v>43823</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3">
         <v>43823</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3">
-        <v>43823</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="6"/>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3">
-        <v>43823</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3">
         <v>43823</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3">
         <v>43823</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
       <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3">
         <v>43823</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="3">
         <v>43823</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
       <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="3">
-        <v>43823</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="6"/>
-      <c r="C15" s="1">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" s="3">
         <v>43823</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3">
-        <v>43823</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
-      <c r="C17" s="1">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="3">
-        <v>43823</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>39</v>
+      <c r="C17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3">
         <v>43823</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G19" s="3">
         <v>43823</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
-      <c r="C20" s="1">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="3">
-        <v>43823</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="6"/>
-      <c r="C21" s="1">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="3">
-        <v>43823</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>39</v>
+      <c r="E27" s="1"/>
+      <c r="F27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43823</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト項目/ラズパイ.xlsx
+++ b/テスト項目/ラズパイ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -369,10 +369,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -467,10 +463,6 @@
     <rPh sb="14" eb="16">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -601,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,6 +610,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -909,7 +904,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -917,7 +912,7 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.375" customWidth="1"/>
+    <col min="5" max="5" width="80.75" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -944,7 +939,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -963,11 +958,11 @@
         <v>43823</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -982,11 +977,11 @@
         <v>43823</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
@@ -1003,16 +998,16 @@
         <v>43823</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1024,11 +1019,11 @@
         <v>43823</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -1036,14 +1031,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G7" s="3">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -1077,8 +1072,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
-        <v>39</v>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1088,17 +1083,17 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3">
         <v>43823</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1">
         <v>2</v>
       </c>
@@ -1107,17 +1102,17 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3">
         <v>43823</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>3</v>
       </c>
@@ -1126,17 +1121,17 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="3">
         <v>43823</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -1147,53 +1142,53 @@
         <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3">
         <v>43823</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="3">
         <v>43823</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="3">
         <v>43823</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -1227,28 +1222,28 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="3">
         <v>43823</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1">
         <v>2</v>
       </c>
@@ -1257,13 +1252,13 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="3">
         <v>43823</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -1297,7 +1292,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
@@ -1308,57 +1303,57 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="3">
         <v>43823</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="3">
         <v>43823</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G24" s="3">
         <v>43823</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1">
         <v>3</v>
       </c>
@@ -1368,39 +1363,39 @@
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>35</v>
+      <c r="F25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G25" s="3">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>35</v>
+      <c r="F26" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G26" s="3">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1">
         <v>5</v>
       </c>
@@ -1408,14 +1403,14 @@
         <v>26</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="4" t="s">
-        <v>35</v>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G27" s="3">
-        <v>43823</v>
+        <v>43824</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
